--- a/data/trans_bre/P17_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>4,55</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>12,62</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>104,98%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,64%</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>157,46%</t>
+          <t>104,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>22,04%</t>
+          <t>66,25%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>134,79%</t>
+          <t>169,02%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9,57%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35,58%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>134,87%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>9,83%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,2; 21,33</t>
+          <t>4,76; 21,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 9,28</t>
+          <t>-2,58; 9,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 12,62</t>
+          <t>1,4; 14,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 9,27</t>
+          <t>-8,06; 9,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 22,55</t>
+          <t>-5,38; 14,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,73; 249,94</t>
+          <t>3,49; 22,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 364,96</t>
+          <t>-7,37; 11,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 556,4</t>
+          <t>26,69; 251,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-37,43; 125,56</t>
+          <t>-35,76; 339,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,17; 424,93</t>
+          <t>9,69; 513,42</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-45,82; 116,99</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-31,5; 180,39</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>16,12; 438,55</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-41,86; 160,01</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,62</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,26</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,04</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>6,05</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,66%</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>22,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>-27,4%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>114,3%</t>
+          <t>32,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>92,26%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,36%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>114,37%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 11,6</t>
+          <t>-6,77; 12,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,64; 4,14</t>
+          <t>-16,11; 3,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 7,79</t>
+          <t>-2,8; 8,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 13,2</t>
+          <t>-1,84; 14,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 11,87</t>
+          <t>-13,66; 9,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,26; 101,53</t>
+          <t>-0,02; 12,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-76,09; 75,63</t>
+          <t>-7,4; 11,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 134,6</t>
+          <t>-31,97; 113,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 308,29</t>
+          <t>-77,94; 62,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 430,39</t>
+          <t>-27,44; 158,61</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-28,11; 327,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-56,11; 97,59</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-9,41; 548,27</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-36,5; 115,72</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,2</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>8,53</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>53,5%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>58,09%</t>
+          <t>58,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>18,95%</t>
+          <t>67,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>73,17%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>102,41%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 13,54</t>
+          <t>1,28; 13,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 7,37</t>
+          <t>-1,05; 9,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 10,59</t>
+          <t>0,48; 11,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 11,17</t>
+          <t>1,17; 11,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 9,18</t>
+          <t>2,72; 14,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,37; 127,7</t>
+          <t>-4,33; 9,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 130,17</t>
+          <t>-6,91; 8,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 153,1</t>
+          <t>7,56; 133,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,41; 147,25</t>
+          <t>-11,47; 187,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 82,04</t>
+          <t>-0,26; 163,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 175,31</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26,98; 246,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-22,46; 91,75</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-35,32; 63,78</t>
         </is>
       </c>
     </row>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>6,64</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>8,49</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>155,84%</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>138,49%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>42,1%</t>
+          <t>156,23%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>55,25%</t>
+          <t>140,41%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>44,98%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>10,54%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>55,23%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-3,0%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,57; 16,54</t>
+          <t>4,69; 16,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,89; 14,84</t>
+          <t>4,72; 14,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,54; 17,96</t>
+          <t>6,58; 17,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 12,06</t>
+          <t>0,26; 12,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 16,05</t>
+          <t>-7,84; 8,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,51; 179,36</t>
+          <t>1,08; 16,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,67; 343,51</t>
+          <t>-7,83; 7,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,02; 262,71</t>
+          <t>32,17; 175,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 107,9</t>
+          <t>49,61; 345,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,19; 132,51</t>
+          <t>52,83; 283,0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 115,96</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-32,71; 58,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>2,94; 136,94</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-30,6; 40,48</t>
         </is>
       </c>
     </row>
@@ -1121,47 +1313,67 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>8,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,01</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>11,57</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>11,54</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>114,75%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>119,42%</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>114,77%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>114,55%</t>
+          <t>99,54%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>59,23%</t>
+          <t>84,26%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>110,68%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>109,13%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>59,25%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,39; 18,17</t>
+          <t>5,18; 18,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,58; 13,72</t>
+          <t>0,91; 12,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,02; 15,61</t>
+          <t>2,36; 14,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 18,5</t>
+          <t>5,56; 18,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,35; 19,47</t>
+          <t>4,25; 19,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>37,73; 249,13</t>
+          <t>1,6; 19,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,68; 310,74</t>
+          <t>-6,48; 10,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,5; 202,33</t>
+          <t>40,87; 236,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>38,42; 237,17</t>
+          <t>4,73; 270,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,7; 130,22</t>
+          <t>16,67; 196,23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>41,24; 230,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29,31; 264,43</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,23; 129,72</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-24,35; 58,27</t>
         </is>
       </c>
     </row>
@@ -1241,47 +1473,67 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>13,72</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>9,44</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>95,66%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>51,31%</t>
+          <t>14,27</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>95,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>65,36%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>76,49%</t>
+          <t>10,85%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>57,38%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>151,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>76,54%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>98,35%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,11; 20,49</t>
+          <t>5,86; 19,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 15,3</t>
+          <t>-2,32; 15,14</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 9,11</t>
+          <t>-6,31; 9,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,68; 25,13</t>
+          <t>0,58; 19,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 20,39</t>
+          <t>3,0; 24,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,98; 205,02</t>
+          <t>0,88; 20,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 168,4</t>
+          <t>4,27; 22,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 71,44</t>
+          <t>31,68; 197,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,33; 188,35</t>
+          <t>-14,71; 150,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 241,26</t>
+          <t>-28,15; 74,86</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 149,4</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13,57; 420,02</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>0,04; 219,36</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>21,19; 221,71</t>
         </is>
       </c>
     </row>
@@ -1361,47 +1633,67 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>8,38</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>76,18%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>55,25%</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>76,15%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>63,69%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>71,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>63,81%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>54,88%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
           <t>65,46%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>65,93%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>65,44%</t>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>21,57%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,99; 13,06</t>
+          <t>6,81; 13,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,64</t>
+          <t>2,66; 8,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,14</t>
+          <t>4,23; 9,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,73; 11,25</t>
+          <t>4,67; 10,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,03</t>
+          <t>2,72; 10,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,91; 113,1</t>
+          <t>4,85; 12,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,71; 104,2</t>
+          <t>-0,0; 7,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>32,26; 104,69</t>
+          <t>45,2; 108,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>33,54; 104,8</t>
+          <t>25,92; 119,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>37,39; 108,06</t>
+          <t>37,11; 104,94</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33,78; 98,32</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 92,81</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>32,61; 103,81</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,06; 46,12</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
